--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -540,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02616366666666666</v>
+        <v>0.017133</v>
       </c>
       <c r="H2">
-        <v>0.07849099999999999</v>
+        <v>0.051399</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.563084333333332</v>
+        <v>7.085731</v>
       </c>
       <c r="N2">
-        <v>22.689253</v>
+        <v>21.257193</v>
       </c>
       <c r="O2">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="P2">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="Q2">
-        <v>0.1978780174692222</v>
+        <v>0.121399829223</v>
       </c>
       <c r="R2">
-        <v>1.780902157222999</v>
+        <v>1.092598463007</v>
       </c>
       <c r="S2">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="T2">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02616366666666666</v>
+        <v>0.017133</v>
       </c>
       <c r="H3">
-        <v>0.07849099999999999</v>
+        <v>0.051399</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>27.960578</v>
       </c>
       <c r="O3">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="P3">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="Q3">
-        <v>0.2438504141997777</v>
+        <v>0.159682860958</v>
       </c>
       <c r="R3">
-        <v>2.194653727798</v>
+        <v>1.437145748622</v>
       </c>
       <c r="S3">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="T3">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02616366666666666</v>
+        <v>0.017133</v>
       </c>
       <c r="H4">
-        <v>0.07849099999999999</v>
+        <v>0.051399</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.689863</v>
+        <v>14.22029466666667</v>
       </c>
       <c r="N4">
-        <v>5.069589000000001</v>
+        <v>42.660884</v>
       </c>
       <c r="O4">
-        <v>0.06543305674977339</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="P4">
-        <v>0.0654330567497734</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="Q4">
-        <v>0.04421301224433333</v>
+        <v>0.243636308524</v>
       </c>
       <c r="R4">
-        <v>0.397917110199</v>
+        <v>2.192726776716</v>
       </c>
       <c r="S4">
-        <v>0.06543305674977339</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="T4">
-        <v>0.0654330567497734</v>
+        <v>0.3275290215525062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02616366666666666</v>
+        <v>0.017133</v>
       </c>
       <c r="H5">
-        <v>0.07849099999999999</v>
+        <v>0.051399</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.900469333333334</v>
+        <v>1.993361666666667</v>
       </c>
       <c r="N5">
-        <v>5.701408000000001</v>
+        <v>5.980085</v>
       </c>
       <c r="O5">
-        <v>0.07358792857125342</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="P5">
-        <v>0.07358792857125343</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="Q5">
-        <v>0.04972324614755556</v>
+        <v>0.034152265435</v>
       </c>
       <c r="R5">
-        <v>0.447509215328</v>
+        <v>0.307370388915</v>
       </c>
       <c r="S5">
-        <v>0.07358792857125342</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="T5">
-        <v>0.07358792857125343</v>
+        <v>0.04591211445245296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02616366666666666</v>
+        <v>0.017133</v>
       </c>
       <c r="H6">
-        <v>0.07849099999999999</v>
+        <v>0.051399</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.352220666666667</v>
+        <v>10.79731966666667</v>
       </c>
       <c r="N6">
-        <v>16.056662</v>
+        <v>32.391959</v>
       </c>
       <c r="O6">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="P6">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="Q6">
-        <v>0.1400337174491111</v>
+        <v>0.184990477849</v>
       </c>
       <c r="R6">
-        <v>1.260303457042</v>
+        <v>1.664914300641</v>
       </c>
       <c r="S6">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="T6">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
     </row>
   </sheetData>
